--- a/biology/Zoologie/Fulvetta_de_Taïwan/Fulvetta_de_Taïwan.xlsx
+++ b/biology/Zoologie/Fulvetta_de_Taïwan/Fulvetta_de_Taïwan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fulvetta_de_Ta%C3%AFwan</t>
+          <t>Fulvetta_de_Taïwan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fulvetta formosana
 La Fulvetta de Taïwan (Fulvetta formosana), anciennement Alcippe de Taïwan, est une espèce d’oiseaux de la famille des Paradoxornithidae, longtemps incluse dans le genre Alcippe et considérée comme sous-espèce de F. cinereiceps, l'Alcippe à gorge rayée. Cette espèce est considérée comme monotypique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fulvetta_de_Ta%C3%AFwan</t>
+          <t>Fulvetta_de_Taïwan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de Taïwan.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fulvetta_de_Ta%C3%AFwan</t>
+          <t>Fulvetta_de_Taïwan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Proparus formosanus (protonyme)Ogilvie-Grant, 1906
 Alcippe formosana (Ogilvie-Grant, 1906)</t>
